--- a/Line items.xlsx
+++ b/Line items.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SHIVAM\Desktop\Financial Modeling project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{438029E9-896F-45E7-A1A3-3CB5AC845C8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97399C1B-8C46-46AF-A56B-86AD37621DA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{0B2BCDC4-B528-4E03-8236-F7EDBA7DFB55}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>PAT</t>
   </si>
@@ -79,14 +79,69 @@
   </si>
   <si>
     <t>Non performing assets</t>
+  </si>
+  <si>
+    <t>JPMorgan Chase &amp; Co.</t>
+  </si>
+  <si>
+    <t>58,471​</t>
+  </si>
+  <si>
+    <t>3,658,056 ​</t>
+  </si>
+  <si>
+    <t>469,317  ​</t>
+  </si>
+  <si>
+    <t>4,002,814 ​</t>
+  </si>
+  <si>
+    <t>101,223​</t>
+  </si>
+  <si>
+    <t>1,323,643 ​</t>
+  </si>
+  <si>
+    <t>30,708​</t>
+  </si>
+  <si>
+    <t>1,757,460 ​</t>
+  </si>
+  <si>
+    <t>Wells Fargo</t>
+  </si>
+  <si>
+    <t>82,247 ​</t>
+  </si>
+  <si>
+    <t>1,217,085 ​</t>
+  </si>
+  <si>
+    <t>Citizens Bank</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -129,10 +184,33 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -447,15 +525,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2A05A9B-3349-4089-9D6C-816248F0D9A5}">
-  <dimension ref="A2:Q12"/>
+  <dimension ref="A2:Q26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="31.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22.5703125" bestFit="1" customWidth="1"/>
@@ -465,62 +543,63 @@
     <col min="9" max="9" width="20.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="20.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="21.42578125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="19.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="L2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="M2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="N2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="O2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="P2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="Q2" s="5" t="s">
         <v>14</v>
       </c>
     </row>
@@ -528,59 +607,275 @@
       <c r="A3" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="4">
         <v>27132</v>
       </c>
       <c r="C3">
         <v>2189</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="4">
         <v>2965960</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="4">
         <v>290114</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="4">
         <v>3261519</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="4">
         <v>1370630</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="4">
         <v>2682681</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3" s="4">
         <v>82247</v>
       </c>
-      <c r="J3" s="2">
+      <c r="J3" s="4">
         <v>917284</v>
       </c>
-      <c r="K3" s="2">
+      <c r="K3" s="4">
         <v>1965467</v>
       </c>
-      <c r="L3" s="2">
+      <c r="L3" s="4">
         <v>1965467</v>
       </c>
-      <c r="M3" s="2">
+      <c r="M3" s="4">
         <v>1095835</v>
       </c>
-      <c r="N3" s="2">
+      <c r="N3" s="4">
         <v>6120</v>
       </c>
-      <c r="O3" s="2">
+      <c r="O3" s="4">
         <v>223458</v>
       </c>
-      <c r="P3" s="2">
+      <c r="P3" s="4">
         <v>31905</v>
       </c>
       <c r="Q3">
         <v>1696000</v>
       </c>
     </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4">
+        <v>7938</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="4">
+        <v>2307920</v>
+      </c>
+      <c r="H4" s="4">
+        <v>3256638</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" s="4">
+        <v>406852</v>
+      </c>
+      <c r="K4" s="4">
+        <v>2372317</v>
+      </c>
+      <c r="L4" s="4">
+        <v>2406032</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="N4" s="4">
+        <v>5118</v>
+      </c>
+      <c r="O4" s="4">
+        <v>294881</v>
+      </c>
+      <c r="P4" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q4" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="7">
+        <v>18606</v>
+      </c>
+      <c r="C5" s="7">
+        <v>1400</v>
+      </c>
+      <c r="D5" s="7">
+        <v>1748779</v>
+      </c>
+      <c r="E5" s="7">
+        <v>37080</v>
+      </c>
+      <c r="F5" s="7">
+        <v>1929845</v>
+      </c>
+      <c r="G5" s="7">
+        <v>599134</v>
+      </c>
+      <c r="H5" s="4">
+        <v>1575701</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J5" s="7">
+        <v>162978</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L5" s="7">
+        <v>1371804</v>
+      </c>
+      <c r="M5" s="7">
+        <v>912745</v>
+      </c>
+      <c r="N5" s="7">
+        <v>7936</v>
+      </c>
+      <c r="O5" s="7">
+        <v>152886</v>
+      </c>
+      <c r="P5" s="7">
+        <v>31772</v>
+      </c>
+      <c r="Q5" s="7">
+        <v>1216065</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="7">
+        <v>2278</v>
+      </c>
+      <c r="C6" s="2">
+        <v>300</v>
+      </c>
+      <c r="D6" s="7">
+        <v>193200</v>
+      </c>
+      <c r="E6" s="7">
+        <v>14760</v>
+      </c>
+      <c r="F6" s="7">
+        <v>217500</v>
+      </c>
+      <c r="G6">
+        <v>52237</v>
+      </c>
+      <c r="H6" s="11">
+        <v>7421</v>
+      </c>
+      <c r="I6" s="7">
+        <v>85136</v>
+      </c>
+      <c r="J6" s="7">
+        <v>25500</v>
+      </c>
+      <c r="K6" s="7">
+        <v>160000</v>
+      </c>
+      <c r="L6" s="7">
+        <v>174800</v>
+      </c>
+      <c r="M6" s="7">
+        <v>171000</v>
+      </c>
+      <c r="N6" s="7">
+        <v>1334</v>
+      </c>
+      <c r="O6" s="7">
+        <v>20750</v>
+      </c>
+      <c r="P6" s="7">
+        <v>2750</v>
+      </c>
+      <c r="Q6" s="7">
+        <v>176000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+      <c r="C11" s="4"/>
+    </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C12" s="2"/>
+      <c r="A12" s="3"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" s="3"/>
+      <c r="B14" s="2"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
+      <c r="B15" s="2"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="3"/>
+      <c r="B16" s="2"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="3"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="3"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="3"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="3"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="3"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="3"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="3"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="3"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="3"/>
+      <c r="B25" s="10"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>